--- a/docs/03_システム要件定義/ユースケース一覧.xlsx
+++ b/docs/03_システム要件定義/ユースケース一覧.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r/Documents/fastapi/docs/03_システム要件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCBE84-0982-DF48-B534-18013403D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43063D2-BB79-B04A-B3C4-17E8EA5B8C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="-10800" windowWidth="25600" windowHeight="28800" xr2:uid="{E7424110-E1E2-2148-A9C6-48309EF862B4}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="26600" windowHeight="16420" xr2:uid="{E7424110-E1E2-2148-A9C6-48309EF862B4}"/>
   </bookViews>
   <sheets>
     <sheet name="UC一覧" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UC一覧!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -433,25 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UC0002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UC0003</t>
-  </si>
-  <si>
-    <t>UC0004</t>
-  </si>
-  <si>
-    <t>UC0005</t>
-  </si>
-  <si>
-    <t>UC0006</t>
-  </si>
-  <si>
-    <t>UC0007</t>
-  </si>
-  <si>
     <t>UC0101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -529,6 +513,24 @@
   </si>
   <si>
     <t>UC0403</t>
+  </si>
+  <si>
+    <t>UC0102</t>
+  </si>
+  <si>
+    <t>UC0103</t>
+  </si>
+  <si>
+    <t>UC0104</t>
+  </si>
+  <si>
+    <t>UC0105</t>
+  </si>
+  <si>
+    <t>UC0106</t>
+  </si>
+  <si>
+    <t>UC0107</t>
   </si>
 </sst>
 </file>
@@ -923,9 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D772248-C8D5-D743-9395-869BE8DE3590}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -946,7 +946,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
@@ -1286,6 +1286,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{7D772248-C8D5-D743-9395-869BE8DE3590}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
